--- a/Data/EC/NIT-9015312408.xlsx
+++ b/Data/EC/NIT-9015312408.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B941C68-7150-4A75-9445-26D2F66C1A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9C3B32-41A4-430B-B09D-7C04C12883ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8A9B560-5986-4FE2-8399-F17F282DED9B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF78351F-2CFD-4F06-82CD-B1FE301D0434}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,31 +65,133 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73159366</t>
+  </si>
+  <si>
+    <t>GILBERTO RAFAEL GARCIA FORERO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>9274531</t>
+  </si>
+  <si>
+    <t>ADOLFO MONTERO CORRALES</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>9024660</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO PAYARES ACUÝA</t>
+  </si>
+  <si>
+    <t>1002377534</t>
+  </si>
+  <si>
+    <t>MARIA ELENA CORRALES CHICA</t>
+  </si>
+  <si>
+    <t>1140881925</t>
+  </si>
+  <si>
+    <t>AMILKAR JAVIER URQUIJO PASTRANA</t>
+  </si>
+  <si>
+    <t>1052996723</t>
+  </si>
+  <si>
+    <t>AURA CRISTINA NUÑEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1052989735</t>
+  </si>
+  <si>
+    <t>CESAR MAURICIO GARRIDO MEJIA</t>
+  </si>
+  <si>
+    <t>1028011386</t>
+  </si>
+  <si>
+    <t>NATALIA INES BANQUEZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>73559179</t>
+  </si>
+  <si>
+    <t>JAVIER DE JESUS PALENCIA MACHACON</t>
+  </si>
+  <si>
+    <t>1028022798</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA BANQUEZ CONTRERAS</t>
+  </si>
+  <si>
     <t>1131073935</t>
   </si>
   <si>
     <t>ANA DEL CARMEN CORRALES SANDOVAL</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>9274531</t>
-  </si>
-  <si>
-    <t>ADOLFO MONTERO CORRALES</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
+    <t>1051677867</t>
+  </si>
+  <si>
+    <t>JARIZEL MARIOS ORTIZ</t>
   </si>
   <si>
     <t>1002421174</t>
@@ -98,118 +200,16 @@
     <t>EDGAR ALFONSO CORRALES JIMENEZ</t>
   </si>
   <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1052996723</t>
-  </si>
-  <si>
-    <t>AURA CRISTINA NUÑEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>73159366</t>
-  </si>
-  <si>
-    <t>GILBERTO RAFAEL GARCIA FORERO</t>
-  </si>
-  <si>
-    <t>1002377534</t>
-  </si>
-  <si>
-    <t>MARIA ELENA CORRALES CHICA</t>
-  </si>
-  <si>
-    <t>1028011386</t>
-  </si>
-  <si>
-    <t>NATALIA INES BANQUEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>1051677867</t>
-  </si>
-  <si>
-    <t>JARIZEL MARIOS ORTIZ</t>
-  </si>
-  <si>
-    <t>1028022798</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA BANQUEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>73559179</t>
-  </si>
-  <si>
-    <t>JAVIER DE JESUS PALENCIA MACHACON</t>
-  </si>
-  <si>
-    <t>9024660</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO PAYARES ACUÝA</t>
-  </si>
-  <si>
-    <t>1140881925</t>
-  </si>
-  <si>
-    <t>AMILKAR JAVIER URQUIJO PASTRANA</t>
+    <t>9272409</t>
+  </si>
+  <si>
+    <t>FRANCI DANULFO CHICA CORRALES</t>
   </si>
   <si>
     <t>8885177</t>
   </si>
   <si>
     <t>GIOVANNY RODRIGUEZ CORRALES</t>
-  </si>
-  <si>
-    <t>1052989735</t>
-  </si>
-  <si>
-    <t>CESAR MAURICIO GARRIDO MEJIA</t>
-  </si>
-  <si>
-    <t>9272409</t>
-  </si>
-  <si>
-    <t>FRANCI DANULFO CHICA CORRALES</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -623,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D72F3E-9888-CC51-CF75-08F888163501}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DCB651-F359-FC4D-9775-789C51FE531D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD42948-6DE4-4588-9883-C54A75DB5BE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7729453-7AD3-4823-8C79-2B831E989DDC}">
   <dimension ref="B2:J144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1152,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1166,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1189,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1221,10 +1221,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1235,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1264,13 +1264,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,13 +1287,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1304,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1327,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1356,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
         <v>1000000</v>
@@ -1373,13 +1373,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1396,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1419,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1442,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1465,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1488,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>22</v>
@@ -1534,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>23</v>
@@ -1557,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1580,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1603,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1626,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1649,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1695,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1718,19 +1718,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1741,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,13 +1770,13 @@
         <v>33</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1787,19 +1787,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F44" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1810,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F45" s="18">
         <v>60000</v>
@@ -1833,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1856,19 +1856,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1879,19 +1879,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1902,16 +1902,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G49" s="18">
         <v>1160000</v>
@@ -1925,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1948,13 +1948,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>46400</v>
@@ -1971,13 +1971,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
         <v>46400</v>
@@ -1994,19 +1994,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F53" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2017,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2040,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
@@ -2063,16 +2063,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G56" s="18">
         <v>1160000</v>
@@ -2086,19 +2086,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2109,13 +2109,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
@@ -2132,13 +2132,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
@@ -2161,13 +2161,13 @@
         <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2178,19 +2178,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F61" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G61" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2201,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2230,10 +2230,10 @@
         <v>39</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G63" s="18">
         <v>1160000</v>
@@ -2247,16 +2247,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G64" s="18">
         <v>1160000</v>
@@ -2270,13 +2270,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
         <v>46400</v>
@@ -2293,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
         <v>46400</v>
@@ -2316,13 +2316,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
@@ -2339,19 +2339,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G68" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
@@ -2385,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="G70" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2408,19 +2408,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F71" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2431,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F72" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G72" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2454,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F73" s="18">
         <v>60000</v>
@@ -2477,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F74" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G74" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2500,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F75" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G75" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2523,19 +2523,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F76" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G76" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2546,16 +2546,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G77" s="18">
         <v>1160000</v>
@@ -2569,16 +2569,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F78" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G78" s="18">
         <v>1160000</v>
@@ -2592,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F79" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2615,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="F80" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G80" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2638,13 +2638,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
@@ -2661,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2684,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
@@ -2707,16 +2707,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G84" s="18">
         <v>1160000</v>
@@ -2730,19 +2730,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="F85" s="18">
         <v>40000</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2753,13 +2753,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
@@ -2776,19 +2776,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F87" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G87" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2799,13 +2799,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
@@ -2822,19 +2822,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F89" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G89" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2845,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F90" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G90" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2868,16 +2868,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F91" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G91" s="18">
         <v>1160000</v>
@@ -2891,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="F92" s="18">
         <v>40000</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2914,16 +2914,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="F93" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G93" s="18">
         <v>1160000</v>
@@ -2937,13 +2937,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F94" s="18">
         <v>46400</v>
@@ -2960,13 +2960,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
@@ -2983,13 +2983,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -3006,13 +3006,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
@@ -3029,19 +3029,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18">
-        <v>60000</v>
+        <v>24000</v>
       </c>
       <c r="G98" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3052,19 +3052,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F99" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G99" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3075,13 +3075,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D100" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3098,13 +3098,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3121,19 +3121,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F102" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3144,19 +3144,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
       </c>
       <c r="G103" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3167,19 +3167,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F104" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G104" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3190,19 +3190,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F105" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G105" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3213,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="F106" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G106" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3236,19 +3236,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F107" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G107" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3265,13 +3265,13 @@
         <v>49</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="F108" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G108" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3282,19 +3282,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F109" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3305,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F110" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G110" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3328,19 +3328,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
       </c>
       <c r="G111" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3351,19 +3351,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3374,19 +3374,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
       </c>
       <c r="G113" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3403,13 +3403,13 @@
         <v>49</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
       </c>
       <c r="G114" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3420,19 +3420,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3443,19 +3443,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
       </c>
       <c r="G116" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3466,19 +3466,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F117" s="18">
-        <v>46400</v>
+        <v>36000</v>
       </c>
       <c r="G117" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3495,13 +3495,13 @@
         <v>51</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F118" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G118" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3512,13 +3512,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F119" s="18">
         <v>60000</v>
@@ -3535,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F120" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G120" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3558,16 +3558,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F121" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G121" s="18">
         <v>1500000</v>
@@ -3581,19 +3581,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="F122" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G122" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3604,19 +3604,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F123" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G123" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3627,19 +3627,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F124" s="18">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G124" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3650,13 +3650,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F125" s="18">
         <v>24000</v>
@@ -3673,19 +3673,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E126" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F126" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G126" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3696,19 +3696,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F127" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G127" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3719,16 +3719,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F128" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G128" s="18">
         <v>1160000</v>
@@ -3742,16 +3742,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F129" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G129" s="18">
         <v>1160000</v>
@@ -3765,16 +3765,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F130" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G130" s="18">
         <v>1160000</v>
@@ -3788,19 +3788,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F131" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G131" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3811,13 +3811,13 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F132" s="18">
         <v>27840</v>
@@ -3834,16 +3834,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="F133" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G133" s="18">
         <v>1160000</v>
@@ -3857,19 +3857,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="F134" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G134" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3880,16 +3880,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="F135" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G135" s="18">
         <v>1160000</v>
@@ -3903,16 +3903,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F136" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G136" s="18">
         <v>1160000</v>
@@ -3926,16 +3926,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F137" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G137" s="18">
         <v>1160000</v>
@@ -3949,19 +3949,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D138" s="23" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="F138" s="24">
-        <v>36000</v>
+        <v>46400</v>
       </c>
       <c r="G138" s="24">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>

--- a/Data/EC/NIT-9015312408.xlsx
+++ b/Data/EC/NIT-9015312408.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D9C3B32-41A4-430B-B09D-7C04C12883ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9084CB13-CD3A-4AEF-8373-53CDB5C0F8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF78351F-2CFD-4F06-82CD-B1FE301D0434}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B829D375-3EB3-43BE-A75B-2F0ED539B9CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,151 +65,151 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9274531</t>
+  </si>
+  <si>
+    <t>ADOLFO MONTERO CORRALES</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1131073935</t>
+  </si>
+  <si>
+    <t>ANA DEL CARMEN CORRALES SANDOVAL</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>1002421174</t>
+  </si>
+  <si>
+    <t>EDGAR ALFONSO CORRALES JIMENEZ</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>73159366</t>
   </si>
   <si>
     <t>GILBERTO RAFAEL GARCIA FORERO</t>
   </si>
   <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>9024660</t>
+  </si>
+  <si>
+    <t>JOSE ALFREDO PAYARES ACUÝA</t>
+  </si>
+  <si>
+    <t>1002377534</t>
+  </si>
+  <si>
+    <t>MARIA ELENA CORRALES CHICA</t>
+  </si>
+  <si>
+    <t>1140881925</t>
+  </si>
+  <si>
+    <t>AMILKAR JAVIER URQUIJO PASTRANA</t>
+  </si>
+  <si>
+    <t>1052996723</t>
+  </si>
+  <si>
+    <t>AURA CRISTINA NUÑEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>1052989735</t>
+  </si>
+  <si>
+    <t>CESAR MAURICIO GARRIDO MEJIA</t>
+  </si>
+  <si>
+    <t>1028011386</t>
+  </si>
+  <si>
+    <t>NATALIA INES BANQUEZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>73559179</t>
+  </si>
+  <si>
+    <t>JAVIER DE JESUS PALENCIA MACHACON</t>
+  </si>
+  <si>
+    <t>1028022798</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA BANQUEZ CONTRERAS</t>
+  </si>
+  <si>
+    <t>1051677867</t>
+  </si>
+  <si>
+    <t>JARIZEL MARIOS ORTIZ</t>
+  </si>
+  <si>
+    <t>9272409</t>
+  </si>
+  <si>
+    <t>FRANCI DANULFO CHICA CORRALES</t>
+  </si>
+  <si>
+    <t>8885177</t>
+  </si>
+  <si>
+    <t>GIOVANNY RODRIGUEZ CORRALES</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>9274531</t>
-  </si>
-  <si>
-    <t>ADOLFO MONTERO CORRALES</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>9024660</t>
-  </si>
-  <si>
-    <t>JOSE ALFREDO PAYARES ACUÝA</t>
-  </si>
-  <si>
-    <t>1002377534</t>
-  </si>
-  <si>
-    <t>MARIA ELENA CORRALES CHICA</t>
-  </si>
-  <si>
-    <t>1140881925</t>
-  </si>
-  <si>
-    <t>AMILKAR JAVIER URQUIJO PASTRANA</t>
-  </si>
-  <si>
-    <t>1052996723</t>
-  </si>
-  <si>
-    <t>AURA CRISTINA NUÑEZ MARTINEZ</t>
-  </si>
-  <si>
-    <t>1052989735</t>
-  </si>
-  <si>
-    <t>CESAR MAURICIO GARRIDO MEJIA</t>
-  </si>
-  <si>
-    <t>1028011386</t>
-  </si>
-  <si>
-    <t>NATALIA INES BANQUEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>73559179</t>
-  </si>
-  <si>
-    <t>JAVIER DE JESUS PALENCIA MACHACON</t>
-  </si>
-  <si>
-    <t>1028022798</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA BANQUEZ CONTRERAS</t>
-  </si>
-  <si>
-    <t>1131073935</t>
-  </si>
-  <si>
-    <t>ANA DEL CARMEN CORRALES SANDOVAL</t>
-  </si>
-  <si>
-    <t>1051677867</t>
-  </si>
-  <si>
-    <t>JARIZEL MARIOS ORTIZ</t>
-  </si>
-  <si>
-    <t>1002421174</t>
-  </si>
-  <si>
-    <t>EDGAR ALFONSO CORRALES JIMENEZ</t>
-  </si>
-  <si>
-    <t>9272409</t>
-  </si>
-  <si>
-    <t>FRANCI DANULFO CHICA CORRALES</t>
-  </si>
-  <si>
-    <t>8885177</t>
-  </si>
-  <si>
-    <t>GIOVANNY RODRIGUEZ CORRALES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -308,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -321,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -523,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -567,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DCB651-F359-FC4D-9775-789C51FE531D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372AC1B6-97CD-26B3-8910-1BDF500B4C06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7729453-7AD3-4823-8C79-2B831E989DDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA548C60-5BE6-4B2C-9073-F0B34AA06C9A}">
   <dimension ref="B2:J144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1152,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1166,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1195,13 +1195,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1212,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1244,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1258,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,13 +1287,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1304,16 +1304,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1327,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1350,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1379,10 +1379,10 @@
         <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="G26" s="18">
         <v>1000000</v>
@@ -1396,13 +1396,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1419,13 +1419,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1442,13 +1442,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1465,13 +1465,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1488,13 +1488,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>22</v>
@@ -1534,10 +1534,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>23</v>
@@ -1557,13 +1557,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1580,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1603,13 +1603,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1626,13 +1626,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1649,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1672,13 +1672,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1695,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1718,16 +1718,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
         <v>1000000</v>
@@ -1741,19 +1741,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1764,19 +1764,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G43" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1793,13 +1793,13 @@
         <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1810,19 +1810,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1833,19 +1833,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1856,19 +1856,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
         <v>60000</v>
       </c>
       <c r="G47" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1879,19 +1879,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1902,19 +1902,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1925,19 +1925,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1948,19 +1948,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1971,19 +1971,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F52" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G52" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1994,19 +1994,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F53" s="18">
         <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2017,13 +2017,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F54" s="18">
         <v>46400</v>
@@ -2040,19 +2040,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F55" s="18">
         <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2063,19 +2063,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2086,19 +2086,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2109,19 +2109,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F58" s="18">
         <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2132,19 +2132,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F59" s="18">
         <v>46400</v>
       </c>
       <c r="G59" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2161,13 +2161,13 @@
         <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F60" s="18">
         <v>46400</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2178,19 +2178,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F61" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G61" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2201,19 +2201,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="F62" s="18">
         <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2224,19 +2224,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F63" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2247,19 +2247,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="F64" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2270,19 +2270,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="F65" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2293,19 +2293,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2316,19 +2316,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F67" s="18">
         <v>46400</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2339,13 +2339,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2362,19 +2362,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F69" s="18">
         <v>46400</v>
       </c>
       <c r="G69" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2385,19 +2385,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F70" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2408,19 +2408,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F71" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G71" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2431,19 +2431,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F72" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G72" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2454,19 +2454,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F73" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G73" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2477,19 +2477,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F74" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G74" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2500,19 +2500,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F75" s="18">
         <v>60000</v>
       </c>
       <c r="G75" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2529,13 +2529,13 @@
         <v>41</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F76" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G76" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2552,13 +2552,13 @@
         <v>43</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F77" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G77" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2569,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F78" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G78" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2592,19 +2592,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F79" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2615,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F80" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2638,19 +2638,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F81" s="18">
         <v>46400</v>
       </c>
       <c r="G81" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2661,13 +2661,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
         <v>46400</v>
@@ -2684,19 +2684,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F83" s="18">
         <v>46400</v>
       </c>
       <c r="G83" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2707,19 +2707,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F84" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G84" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2730,19 +2730,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G85" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2753,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F86" s="18">
         <v>46400</v>
       </c>
       <c r="G86" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2776,19 +2776,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F87" s="18">
         <v>46400</v>
       </c>
       <c r="G87" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2799,19 +2799,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F88" s="18">
         <v>46400</v>
       </c>
       <c r="G88" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2822,19 +2822,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F89" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G89" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2845,19 +2845,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F90" s="18">
         <v>46400</v>
       </c>
       <c r="G90" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2868,19 +2868,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F91" s="18">
-        <v>24000</v>
+        <v>46400</v>
       </c>
       <c r="G91" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2891,19 +2891,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G92" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2914,19 +2914,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
       </c>
       <c r="G93" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2943,13 +2943,13 @@
         <v>47</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F94" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G94" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -2960,19 +2960,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F95" s="18">
         <v>46400</v>
       </c>
       <c r="G95" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -2983,13 +2983,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F96" s="18">
         <v>46400</v>
@@ -3006,19 +3006,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F97" s="18">
         <v>46400</v>
       </c>
       <c r="G97" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3029,16 +3029,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F98" s="18">
-        <v>24000</v>
+        <v>40000</v>
       </c>
       <c r="G98" s="18">
         <v>1000000</v>
@@ -3052,16 +3052,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G99" s="18">
         <v>1000000</v>
@@ -3075,16 +3075,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G100" s="18">
         <v>1000000</v>
@@ -3098,16 +3098,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G101" s="18">
         <v>1000000</v>
@@ -3121,16 +3121,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G102" s="18">
         <v>1000000</v>
@@ -3144,16 +3144,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G103" s="18">
         <v>1000000</v>
@@ -3167,16 +3167,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G104" s="18">
         <v>1000000</v>
@@ -3190,16 +3190,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F105" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G105" s="18">
         <v>1000000</v>
@@ -3213,13 +3213,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3236,13 +3236,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F107" s="18">
         <v>40000</v>
@@ -3259,19 +3259,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G108" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3288,10 +3288,10 @@
         <v>49</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F109" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G109" s="18">
         <v>1000000</v>
@@ -3305,19 +3305,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F110" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G110" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3328,13 +3328,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3351,13 +3351,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3374,13 +3374,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3397,13 +3397,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
@@ -3420,13 +3420,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="F115" s="18">
         <v>40000</v>
@@ -3443,13 +3443,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3466,19 +3466,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F117" s="18">
-        <v>36000</v>
+        <v>40000</v>
       </c>
       <c r="G117" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3489,19 +3489,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="F118" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3512,19 +3512,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="F119" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G119" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3535,19 +3535,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F120" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G120" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3558,19 +3558,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F121" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3581,13 +3581,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="F122" s="18">
         <v>60000</v>
@@ -3604,19 +3604,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="F123" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3627,19 +3627,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F124" s="18">
-        <v>16000</v>
+        <v>46400</v>
       </c>
       <c r="G124" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3650,19 +3650,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F125" s="18">
         <v>24000</v>
       </c>
       <c r="G125" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3673,19 +3673,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="F126" s="18">
-        <v>40000</v>
+        <v>24000</v>
       </c>
       <c r="G126" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3696,19 +3696,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="F127" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G127" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3719,19 +3719,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F128" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G128" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3742,19 +3742,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="F129" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G129" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3765,19 +3765,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="F130" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G130" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3788,19 +3788,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F131" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G131" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3811,19 +3811,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D132" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E132" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F132" s="18">
-        <v>27840</v>
+        <v>24000</v>
       </c>
       <c r="G132" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3834,19 +3834,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D133" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E133" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F133" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G133" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3857,19 +3857,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D134" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E134" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E134" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F134" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G134" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3880,19 +3880,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E135" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F135" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G135" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -3903,19 +3903,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D136" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E136" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E136" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F136" s="18">
-        <v>46400</v>
+        <v>36000</v>
       </c>
       <c r="G136" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -3926,19 +3926,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D137" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E137" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F137" s="18">
-        <v>46400</v>
+        <v>24000</v>
       </c>
       <c r="G137" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3949,16 +3949,16 @@
         <v>8</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D138" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E138" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E138" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F138" s="24">
-        <v>46400</v>
+        <v>27840</v>
       </c>
       <c r="G138" s="24">
         <v>1160000</v>
